--- a/WebApplication1/Schema.xlsx
+++ b/WebApplication1/Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="4860" windowWidth="28800" windowHeight="12300" tabRatio="605"/>
+    <workbookView xWindow="0" yWindow="4860" windowWidth="28800" windowHeight="12300" tabRatio="605"/>
   </bookViews>
   <sheets>
     <sheet name="Schema1" sheetId="7" r:id="rId1"/>
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6654" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="91">
   <si>
     <t>Ejvergård</t>
   </si>
@@ -2269,16 +2269,10 @@
     <t>Sadeghi Arash</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Jonsson M</t>
   </si>
   <si>
     <t>Säfström</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>R Lindqvist</t>
@@ -3876,9 +3870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FV50" sqref="FV50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9769,22 +9763,22 @@
     </row>
     <row r="5" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -12565,7 +12559,7 @@
     </row>
     <row r="8" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>25</v>
@@ -13491,7 +13485,7 @@
     </row>
     <row r="9" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -17656,7 +17650,7 @@
     </row>
     <row r="14" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>30</v>
@@ -20447,7 +20441,7 @@
     </row>
     <row r="17" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -21837,7 +21831,7 @@
     </row>
     <row r="19" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -24733,7 +24727,7 @@
     </row>
     <row r="24" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -26611,7 +26605,7 @@
     </row>
     <row r="27" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="8" t="s">
@@ -27359,9 +27353,7 @@
       <c r="EC28" s="8"/>
       <c r="ED28" s="8"/>
       <c r="EE28" s="8"/>
-      <c r="EF28" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="EF28" s="8"/>
       <c r="EG28" s="8"/>
       <c r="EH28" s="8"/>
       <c r="EI28" s="8"/>
@@ -28273,7 +28265,7 @@
     </row>
     <row r="30" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -30544,7 +30536,7 @@
     </row>
     <row r="35" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>36</v>
@@ -34042,7 +34034,7 @@
     </row>
     <row r="38" spans="1:452" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>31</v>
@@ -35620,7 +35612,7 @@
       <c r="FO39" s="8"/>
       <c r="FP39" s="8"/>
       <c r="FQ39" s="8" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="FR39" s="8" t="s">
         <v>27</v>

--- a/WebApplication1/Schema.xlsx
+++ b/WebApplication1/Schema.xlsx
@@ -2212,9 +2212,6 @@
     <t>4. kl 07:15-19:15</t>
   </si>
   <si>
-    <t>Nilsson Daniel</t>
-  </si>
-  <si>
     <t>Arkiv</t>
   </si>
   <si>
@@ -2260,15 +2257,6 @@
     <t>4sf</t>
   </si>
   <si>
-    <t>Nilsson Joakim</t>
-  </si>
-  <si>
-    <t>Lundgren Peter</t>
-  </si>
-  <si>
-    <t>Sadeghi Arash</t>
-  </si>
-  <si>
     <t>Jonsson M</t>
   </si>
   <si>
@@ -2290,9 +2278,6 @@
     <t>Santana</t>
   </si>
   <si>
-    <t>Nilsson</t>
-  </si>
-  <si>
     <t>Sundh</t>
   </si>
   <si>
@@ -2300,6 +2285,21 @@
   </si>
   <si>
     <t>Petzäll</t>
+  </si>
+  <si>
+    <t>Lundgren</t>
+  </si>
+  <si>
+    <t>Sadeghi</t>
+  </si>
+  <si>
+    <t>JNilsson</t>
+  </si>
+  <si>
+    <t>CNilsson</t>
+  </si>
+  <si>
+    <t>DNilsson</t>
   </si>
 </sst>
 </file>
@@ -3870,9 +3870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FV50" sqref="FV50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9486,7 +9486,7 @@
       <c r="FV4" s="7"/>
       <c r="FW4" s="7"/>
       <c r="FX4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FY4" s="7"/>
       <c r="FZ4" s="7"/>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="5" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>27</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="8" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>25</v>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="9" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="13" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>34</v>
@@ -17650,7 +17650,7 @@
     </row>
     <row r="14" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>30</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="17" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -20525,7 +20525,7 @@
         <v>30</v>
       </c>
       <c r="AO17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -21831,7 +21831,7 @@
     </row>
     <row r="19" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22381,7 +22381,7 @@
     </row>
     <row r="20" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="21" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="26"/>
@@ -23547,7 +23547,7 @@
     </row>
     <row r="22" spans="1:452" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="26"/>
@@ -23818,61 +23818,61 @@
         <v>24</v>
       </c>
       <c r="GL22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GM22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GN22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GO22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GP22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GQ22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GR22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GS22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GT22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GU22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GV22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GW22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GX22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GY22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GZ22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HA22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HB22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HC22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HD22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HE22" s="8"/>
       <c r="HF22" s="8"/>
@@ -24143,7 +24143,7 @@
     </row>
     <row r="23" spans="1:452" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="26"/>
@@ -24727,7 +24727,7 @@
     </row>
     <row r="24" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -25040,19 +25040,19 @@
       <c r="GL24" s="8"/>
       <c r="GM24" s="8"/>
       <c r="GN24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="GO24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="GP24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="GQ24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="GO24" s="8" t="s">
+      <c r="GR24" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="GP24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="GQ24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="GR24" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="GS24" s="8" t="s">
         <v>30</v>
@@ -25096,13 +25096,13 @@
       <c r="HN24" s="8"/>
       <c r="HO24" s="8"/>
       <c r="HP24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="HQ24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="HR24" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="HS24" s="8"/>
       <c r="HT24" s="8"/>
@@ -25393,10 +25393,10 @@
         <v>33</v>
       </c>
       <c r="NC24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="ND24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="NE24" s="8" t="s">
         <v>30</v>
@@ -26196,19 +26196,19 @@
       <c r="EV26" s="8"/>
       <c r="EW26" s="8"/>
       <c r="EX26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EY26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EZ26" s="8"/>
       <c r="FA26" s="8"/>
       <c r="FB26" s="8"/>
       <c r="FC26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FD26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FE26" s="8" t="s">
         <v>33</v>
@@ -26221,19 +26221,19 @@
       </c>
       <c r="FH26" s="8"/>
       <c r="FI26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FJ26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FK26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FL26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FM26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FN26" s="8"/>
       <c r="FO26" s="8"/>
@@ -26352,19 +26352,19 @@
       <c r="HL26" s="8"/>
       <c r="HM26" s="8"/>
       <c r="HN26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HO26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HP26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HQ26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HR26" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HS26" s="8"/>
       <c r="HT26" s="8"/>
@@ -26605,7 +26605,7 @@
     </row>
     <row r="27" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="8" t="s">
@@ -26673,13 +26673,13 @@
         <v>25</v>
       </c>
       <c r="AK27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
@@ -26900,19 +26900,19 @@
       <c r="GX27" s="8"/>
       <c r="GY27" s="8"/>
       <c r="GZ27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HA27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HB27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HC27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HD27" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HE27" s="8"/>
       <c r="HF27" s="8"/>
@@ -27177,7 +27177,7 @@
     </row>
     <row r="28" spans="1:452" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="26"/>
@@ -27381,199 +27381,199 @@
       <c r="EY28" s="8"/>
       <c r="EZ28" s="8"/>
       <c r="FA28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FB28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FC28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FD28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FE28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FF28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FG28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FH28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FI28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FJ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FK28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FL28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FM28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FN28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FO28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FP28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FQ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FR28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FS28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FT28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FU28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FV28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FW28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FX28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FY28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FZ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GA28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GB28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GC28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GD28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GE28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GF28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GG28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GH28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GI28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GJ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GK28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GL28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GM28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GN28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GO28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GP28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GQ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GR28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GS28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GT28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GU28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GV28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GW28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GX28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GY28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GZ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HA28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HB28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HC28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HD28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HE28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HF28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HG28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HH28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HI28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HJ28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HK28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HL28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HM28" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HN28" s="8"/>
       <c r="HO28" s="8"/>
@@ -28265,7 +28265,7 @@
     </row>
     <row r="30" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -30536,7 +30536,7 @@
     </row>
     <row r="35" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>36</v>
@@ -30988,7 +30988,7 @@
         <v>27</v>
       </c>
       <c r="FU35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FV35" s="8"/>
       <c r="FW35" s="8"/>
@@ -31064,7 +31064,7 @@
         <v>27</v>
       </c>
       <c r="GW35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="GX35" s="8"/>
       <c r="GY35" s="8"/>
@@ -31710,7 +31710,7 @@
     </row>
     <row r="36" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>33</v>
@@ -32327,7 +32327,7 @@
         <v>27</v>
       </c>
       <c r="IF36" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="IG36" s="26"/>
       <c r="IH36" s="26"/>
@@ -33362,7 +33362,7 @@
         <v>27</v>
       </c>
       <c r="GI37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="GJ37" s="8"/>
       <c r="GK37" s="8"/>
@@ -34034,7 +34034,7 @@
     </row>
     <row r="38" spans="1:452" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>31</v>
@@ -34474,7 +34474,7 @@
       <c r="FO38" s="8"/>
       <c r="FP38" s="8"/>
       <c r="FQ38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="FR38" s="8" t="s">
         <v>33</v>
@@ -34613,7 +34613,7 @@
         <v>27</v>
       </c>
       <c r="HR38" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="HS38" s="8"/>
       <c r="HT38" s="8"/>
@@ -35335,7 +35335,7 @@
         <v>33</v>
       </c>
       <c r="BF39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BG39" s="8"/>
       <c r="BH39" s="8"/>
@@ -35726,7 +35726,7 @@
         <v>33</v>
       </c>
       <c r="HK39" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="HL39" s="8"/>
       <c r="HM39" s="8"/>
@@ -35743,7 +35743,7 @@
         <v>33</v>
       </c>
       <c r="HR39" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="HS39" s="8"/>
       <c r="HT39" s="38"/>
@@ -41193,7 +41193,7 @@
         <v>27</v>
       </c>
       <c r="FU50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="FV50" s="8"/>
       <c r="FW50" s="8"/>
@@ -41210,7 +41210,7 @@
         <v>27</v>
       </c>
       <c r="GB50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="GC50" s="8"/>
       <c r="GD50" s="8"/>
@@ -41227,7 +41227,7 @@
         <v>27</v>
       </c>
       <c r="GI50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="GJ50" s="8"/>
       <c r="GK50" s="8"/>
@@ -43498,7 +43498,7 @@
     </row>
     <row r="75" spans="1:1" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:1" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -43521,12 +43521,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -43857,7 +43857,7 @@
         <v>46</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/WebApplication1/Schema.xlsx
+++ b/WebApplication1/Schema.xlsx
@@ -1981,7 +1981,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="91">
   <si>
     <t>Ejvergård</t>
   </si>
@@ -2257,9 +2257,6 @@
     <t>4sf</t>
   </si>
   <si>
-    <t>Jonsson M</t>
-  </si>
-  <si>
     <t>Säfström</t>
   </si>
   <si>
@@ -2300,6 +2297,9 @@
   </si>
   <si>
     <t>DNilsson</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
   </si>
 </sst>
 </file>
@@ -3870,9 +3870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GM30" sqref="GM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9485,9 +9485,7 @@
       <c r="FU4" s="7"/>
       <c r="FV4" s="7"/>
       <c r="FW4" s="7"/>
-      <c r="FX4" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="FX4" s="7"/>
       <c r="FY4" s="7"/>
       <c r="FZ4" s="7"/>
       <c r="GA4" s="7"/>
@@ -9763,7 +9761,7 @@
     </row>
     <row r="5" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>27</v>
@@ -12559,7 +12557,7 @@
     </row>
     <row r="8" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>25</v>
@@ -13485,7 +13483,7 @@
     </row>
     <row r="9" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -17650,7 +17648,7 @@
     </row>
     <row r="14" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>30</v>
@@ -20441,7 +20439,7 @@
     </row>
     <row r="17" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -21831,7 +21829,7 @@
     </row>
     <row r="19" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -22381,7 +22379,7 @@
     </row>
     <row r="20" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -22967,7 +22965,7 @@
     </row>
     <row r="21" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="26"/>
@@ -23547,7 +23545,7 @@
     </row>
     <row r="22" spans="1:452" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="26"/>
@@ -24727,7 +24725,7 @@
     </row>
     <row r="24" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="26"/>
@@ -26605,7 +26603,7 @@
     </row>
     <row r="27" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="8" t="s">
@@ -28265,7 +28263,7 @@
     </row>
     <row r="30" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -30536,7 +30534,7 @@
     </row>
     <row r="35" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>36</v>
@@ -31710,7 +31708,7 @@
     </row>
     <row r="36" spans="1:452" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>33</v>
@@ -34034,7 +34032,7 @@
     </row>
     <row r="38" spans="1:452" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>31</v>
